--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_20-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_20-50.xlsx
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم ايفا  وسط</t>
   </si>
   <si>
     <t>معجون كلوز اب الصغير</t>
@@ -3839,51 +3842,77 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="112" ht="26.25" customHeight="1">
-      <c r="K112" s="10">
-        <v>7360.5600000000004</v>
-      </c>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="11">
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="6">
+        <v>109</v>
+      </c>
+      <c t="s" r="B112" s="7">
         <v>152</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c t="s" r="F113" s="12">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c t="s" r="H112" s="8">
+        <v>91</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="9">
+        <v>20</v>
+      </c>
+      <c r="M112" s="9"/>
+      <c t="s" r="N112" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" ht="25.5" customHeight="1">
+      <c r="K113" s="10">
+        <v>7395.5600000000004</v>
+      </c>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+    </row>
+    <row r="114" ht="17.25" customHeight="1">
+      <c t="s" r="A114" s="11">
         <v>153</v>
       </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="13"/>
-      <c t="s" r="I113" s="14">
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c t="s" r="F114" s="12">
         <v>154</v>
       </c>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="13"/>
+      <c t="s" r="I114" s="14">
+        <v>155</v>
+      </c>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="335">
+  <mergeCells count="338">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4215,10 +4244,13 @@
     <mergeCell ref="B111:G111"/>
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
-    <mergeCell ref="K112:N112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="I113:N113"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="K113:N113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="I114:N114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
